--- a/data/trans_bre/P57_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Provincia-trans_bre.xlsx
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 1,64</t>
+          <t>-13,09; 1,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -1,46</t>
+          <t>-18,27; -1,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 6,41</t>
+          <t>-37,53; 6,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,37; -6,64</t>
+          <t>-55,98; -8,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 2,96</t>
+          <t>-8,96; 2,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 2,31</t>
+          <t>-11,38; 1,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 9,39</t>
+          <t>-24,02; 8,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 3,75</t>
+          <t>-14,77; 2,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 5,83</t>
+          <t>-8,64; 5,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -2,74</t>
+          <t>-16,28; -1,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 22,67</t>
+          <t>-25,24; 20,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -6,04</t>
+          <t>-31,49; -4,2</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 1,64</t>
+          <t>-12,57; 1,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 3,67</t>
+          <t>-23,8; 3,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 4,33</t>
+          <t>-28,76; 5,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 9,46</t>
+          <t>-53,24; 7,39</t>
         </is>
       </c>
     </row>
@@ -849,29 +849,29 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 2,27</t>
+          <t>-9,9; 2,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 3,4</t>
+          <t>-11,68; 4,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 19,75</t>
+          <t>-53,43; 22,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 9,57</t>
+          <t>-26,15; 14,05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -909,29 +909,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 2,42</t>
+          <t>-14,58; 2,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 9,87</t>
+          <t>-5,64; 9,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 4,96</t>
+          <t>-26,54; 5,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 21,57</t>
+          <t>-10,48; 21,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 1,62</t>
+          <t>-8,66; 1,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -3,13</t>
+          <t>-32,83; -2,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 6,16</t>
+          <t>-26,88; 4,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-68,14; -7,22</t>
+          <t>-70,59; -6,15</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 0,61</t>
+          <t>-8,09; 0,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,82; -7,33</t>
+          <t>-48,21; -7,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 5,81</t>
+          <t>-36,37; 0,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-59,98; -18,22</t>
+          <t>-60,51; -17,35</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -1,59</t>
+          <t>-6,2; -1,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-27,07; -6,65</t>
+          <t>-27,7; -7,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -5,48</t>
+          <t>-19,64; -6,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -14,14</t>
+          <t>-45,02; -16,0</t>
         </is>
       </c>
     </row>
